--- a/salida f.xlsx
+++ b/salida f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,121 +446,53 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Carrefour Precio</t>
+          <t>Disco Precio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Carrefour Precio s/ Dto</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Farmacity Precio</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Farmacity Precio s/ Dto</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Libertad Precio</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Libertad Precio s/ Dto</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Lider Precio</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Lider Precio s/ Dto</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Super Mami Precio</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Super Mami Precio s/ Dto</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Ferniplast Precio</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Ferniplast Precio s/ Dto</t>
+          <t>Disco Precio s/ Dto</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7798339190105</v>
+        <v>7794000006188</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ESPADOL DETTOL ALOE VERA 80 GR JAB</t>
+          <t>Ketchup Hellmanns 250 Gr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$ 1.200,00</t>
+          <t>$1.700</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$ 1.200,00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$ 1.194</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$ 1.194</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>$ 999,00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>$ 1.115,00</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
+          <t>$1.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7799155000197</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Agua Sin Gas Villavicencio 2 L</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$1.600</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$1.600</t>
+        </is>
       </c>
     </row>
   </sheetData>
